--- a/Unity/Assets/Config/Excel/Data/ModelDifficultyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/ModelDifficultyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16960" activeTab="2"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -60,6 +60,12 @@
     <t>HasSecond</t>
   </si>
   <si>
+    <t>ToMapConfigId</t>
+  </si>
+  <si>
+    <t>string&amp;group=c</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t>是否有第二幕</t>
   </si>
   <si>
+    <t>跳转地图配置Id</t>
+  </si>
+  <si>
     <t>难度1</t>
   </si>
   <si>
@@ -94,12 +103,6 @@
   </si>
   <si>
     <t>难度9</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>开爽模式N1</t>
@@ -126,12 +129,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,10 +165,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,15 +220,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,59 +259,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,35 +275,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,7 +316,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,13 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,151 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,54 +495,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,10 +515,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -598,160 +545,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,54 +763,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1114,11 +1110,11 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.1634615384615" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.6634615384615" style="3" customWidth="1"/>
@@ -1167,29 +1163,29 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="5">
+    <row r="4" ht="14" spans="2:4">
+      <c r="B4" s="4">
         <v>1001</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="5">
+    <row r="5" ht="14" spans="2:4">
+      <c r="B5" s="4">
         <v>1002</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1203,18 +1199,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="13.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="16.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" customWidth="1"/>
+    <col min="6" max="6" width="16.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,8 +1228,11 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1239,16 +1240,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1258,19 +1262,22 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1278,13 +1285,16 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1292,13 +1302,16 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>10003</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1306,13 +1319,16 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7">
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1320,13 +1336,16 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8">
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1334,13 +1353,16 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9">
         <v>10006</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1348,13 +1370,16 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10">
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1362,13 +1387,16 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>10008</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1376,19 +1404,25 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12">
         <v>10009</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1400,18 +1434,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="13.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="16.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" customWidth="1"/>
+    <col min="6" max="6" width="17.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,8 +1463,11 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1436,60 +1475,78 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
+        <v>20001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -1497,13 +1554,16 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1511,13 +1571,16 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8">
-        <v>20004</v>
+        <v>20005</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1525,13 +1588,16 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9">
-        <v>20005</v>
+        <v>20006</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1539,13 +1605,16 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10">
-        <v>20006</v>
+        <v>20007</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1553,19 +1622,8 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
-        <v>20007</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
+      <c r="F10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
